--- a/auto/new_data/9_2_Non-ferrous_LME-Tin.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Tin.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>375</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2304</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nov 24</t>
+          <t>Dec 24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>960</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>765</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>630</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1557</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>727</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>288</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Tin.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Tin.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2430</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2304</t>
+          <t>2066</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>496</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>1672</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>708</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1557</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>444</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>721</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>305</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Tin.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Tin.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2066</t>
+          <t>1176</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>571</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>1803</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>958</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>562</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>May 25</t>
+          <t>Jun 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>589</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
